--- a/public/static/results/orienteering/results-26-10-22.xlsx
+++ b/public/static/results/orienteering/results-26-10-22.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf03b9dc05c9a701/Desktop/Maprun events/Summer 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDC95A6-DE6E-4754-B176-A2BEB7B400A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{CFDC95A6-DE6E-4754-B176-A2BEB7B400A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E3BEC6-8235-4AD9-8DB1-F14FF5DA5E0D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="7" r:id="rId1"/>
@@ -20,17 +20,30 @@
     <sheet name="Cawthorne" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Cawthorne!$A$1:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Cawthorne!$A$1:$L$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Combined!$A$1:$G$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Langsett!$A$1:$L$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Penistone!$A$1:$L$21</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -564,12 +577,15 @@
   </si>
   <si>
     <t>Silkstone Common</t>
+  </si>
+  <si>
+    <t>Cockerton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1409,11 +1425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1484,7 @@
         <v>320</v>
       </c>
       <c r="G2">
-        <f>C2+D2+E2+F2</f>
+        <f t="shared" ref="G2:G25" si="0">C2+D2+E2+F2</f>
         <v>1410</v>
       </c>
     </row>
@@ -1492,7 +1508,7 @@
         <v>230</v>
       </c>
       <c r="G3">
-        <f>C3+D3+E3+F3</f>
+        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
       <c r="M3" s="1"/>
@@ -1515,7 +1531,7 @@
         <v>330</v>
       </c>
       <c r="G4">
-        <f>C4+D4+E4+F4</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="M4" s="1"/>
@@ -1541,7 +1557,7 @@
         <v>220</v>
       </c>
       <c r="G5">
-        <f>C5+D5+E5+F5</f>
+        <f t="shared" si="0"/>
         <v>1060</v>
       </c>
       <c r="M5" s="1"/>
@@ -1564,7 +1580,7 @@
         <v>380</v>
       </c>
       <c r="G6">
-        <f>C6+D6+E6+F6</f>
+        <f t="shared" si="0"/>
         <v>970</v>
       </c>
       <c r="M6" s="1"/>
@@ -1590,7 +1606,7 @@
         <v>40</v>
       </c>
       <c r="G7">
-        <f>C7+D7+E7+F7</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
       <c r="M7" s="1"/>
@@ -1613,7 +1629,7 @@
         <v>260</v>
       </c>
       <c r="G8">
-        <f>C8+D8+E8+F8</f>
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
       <c r="M8" s="1"/>
@@ -1636,7 +1652,7 @@
         <v>210</v>
       </c>
       <c r="G9">
-        <f>C9+D9+E9+F9</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="M9" s="1"/>
@@ -1659,7 +1675,7 @@
         <v>250</v>
       </c>
       <c r="G10">
-        <f>C10+D10+E10+F10</f>
+        <f t="shared" si="0"/>
         <v>770</v>
       </c>
       <c r="M10" s="1"/>
@@ -1679,7 +1695,7 @@
         <v>450</v>
       </c>
       <c r="G11">
-        <f>C11+D11+E11+F11</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
       <c r="M11" s="3"/>
@@ -1699,7 +1715,7 @@
         <v>390</v>
       </c>
       <c r="G12">
-        <f>C12+D12+E12+F12</f>
+        <f t="shared" si="0"/>
         <v>670</v>
       </c>
       <c r="N12" s="1"/>
@@ -1721,7 +1737,7 @@
         <v>150</v>
       </c>
       <c r="G13">
-        <f>C13+D13+E13+F13</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="N13" s="1"/>
@@ -1740,7 +1756,7 @@
         <v>390</v>
       </c>
       <c r="G14">
-        <f>C14+D14+E14+F14</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="N14" s="1"/>
@@ -1756,7 +1772,7 @@
         <v>520</v>
       </c>
       <c r="G15">
-        <f>C15+D15+E15+F15</f>
+        <f t="shared" si="0"/>
         <v>520</v>
       </c>
       <c r="N15" s="1"/>
@@ -1772,7 +1788,7 @@
         <v>520</v>
       </c>
       <c r="G16">
-        <f>C16+D16+E16+F16</f>
+        <f t="shared" si="0"/>
         <v>520</v>
       </c>
       <c r="N16" s="1"/>
@@ -1788,7 +1804,7 @@
         <v>430</v>
       </c>
       <c r="G17">
-        <f>C17+D17+E17+F17</f>
+        <f t="shared" si="0"/>
         <v>430</v>
       </c>
       <c r="N17" s="1"/>
@@ -1804,7 +1820,7 @@
         <v>380</v>
       </c>
       <c r="G18">
-        <f>C18+D18+E18+F18</f>
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
       <c r="N18" s="1"/>
@@ -1820,7 +1836,7 @@
         <v>300</v>
       </c>
       <c r="G19">
-        <f>C19+D19+E19+F19</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="N19" s="1"/>
@@ -1836,7 +1852,7 @@
         <v>300</v>
       </c>
       <c r="G20">
-        <f>C20+D20+E20+F20</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="N20" s="1"/>
@@ -1852,7 +1868,7 @@
         <v>300</v>
       </c>
       <c r="G21">
-        <f>C21+D21+E21+F21</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="N21" s="1"/>
@@ -1868,7 +1884,7 @@
         <v>220</v>
       </c>
       <c r="G22">
-        <f>C22+D22+E22+F22</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="N22" s="1"/>
@@ -1884,7 +1900,7 @@
         <v>190</v>
       </c>
       <c r="G23">
-        <f>C23+D23+E23+F23</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="N23" s="1"/>
@@ -1900,16 +1916,29 @@
         <v>190</v>
       </c>
       <c r="G24">
-        <f>C24+D24+E24+F24</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
       <c r="N25" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18">
+  <autoFilter ref="A1:G18" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
       <sortCondition descending="1" ref="G1:G18"/>
     </sortState>
@@ -1919,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,7 +3160,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L21">
+  <autoFilter ref="A1:L21" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
       <sortCondition descending="1" ref="K1:K21"/>
     </sortState>
@@ -3141,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3764,7 +3793,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L16">
+  <autoFilter ref="A1:L16" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
       <sortCondition descending="1" ref="K1:K16"/>
     </sortState>
@@ -3774,11 +3803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3828,230 +3857,230 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>5.9965277777777777E-2</v>
+        <v>5.935185185185185E-2</v>
       </c>
       <c r="F2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="G2">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="H2">
-        <v>14.85</v>
+        <v>16.02</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2">
-        <v>44852</v>
+        <v>44822</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.0023148148148152E-2</v>
+      </c>
+      <c r="F3">
+        <v>520</v>
+      </c>
+      <c r="G3">
+        <v>520</v>
+      </c>
+      <c r="H3">
+        <v>16.41</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.2256944444444446E-2</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-      <c r="G3">
-        <v>300</v>
-      </c>
-      <c r="H3">
-        <v>9.82</v>
-      </c>
-      <c r="I3" t="s">
-        <v>94</v>
-      </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2">
-        <v>44850</v>
+        <v>44801</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1">
-        <v>5.842592592592593E-2</v>
+        <v>5.9965277777777777E-2</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="H4">
-        <v>9.39</v>
+        <v>14.85</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2">
-        <v>44850</v>
+        <v>44852</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>5.8518518518518518E-2</v>
+        <v>5.9108796296296291E-2</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="H5">
-        <v>9.76</v>
+        <v>15.19</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2">
-        <v>44850</v>
+        <v>44839</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
-        <v>6.0312499999999998E-2</v>
+        <v>5.8252314814814819E-2</v>
       </c>
       <c r="F6">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="G6">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="H6">
-        <v>13.37</v>
+        <v>14.44</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
-        <v>44846</v>
+        <v>44815</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1">
-        <v>5.724537037037037E-2</v>
+        <v>5.6817129629629627E-2</v>
       </c>
       <c r="F7">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="G7">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="H7">
-        <v>11.82</v>
+        <v>13.89</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2">
-        <v>44846</v>
+        <v>44834</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4094,691 +4123,691 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
-        <v>6.3032407407407412E-2</v>
+        <v>6.0763888888888888E-2</v>
       </c>
       <c r="F9">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="G9">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="H9">
-        <v>12.19</v>
+        <v>14.97</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="K9" s="2">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1">
-        <v>5.9108796296296291E-2</v>
+        <v>5.5960648148148141E-2</v>
       </c>
       <c r="F10">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="G10">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="H10">
-        <v>15.19</v>
+        <v>12.73</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2">
-        <v>44839</v>
+        <v>44811</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
-        <v>5.7326388888888892E-2</v>
+        <v>5.6064814814814817E-2</v>
       </c>
       <c r="F11">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="G11">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="H11">
-        <v>11.33</v>
+        <v>12.67</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
-        <v>44836</v>
+        <v>44811</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1">
-        <v>5.6817129629629627E-2</v>
+        <v>5.8993055555555556E-2</v>
       </c>
       <c r="F12">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="G12">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="H12">
-        <v>13.89</v>
+        <v>14.08</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2">
-        <v>44834</v>
+        <v>44800</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
-        <v>5.6331018518518516E-2</v>
+        <v>5.994212962962963E-2</v>
       </c>
       <c r="F13">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="G13">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="H13">
-        <v>11.54</v>
+        <v>11.96</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2">
-        <v>44833</v>
+        <v>44801</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
-        <v>5.6331018518518516E-2</v>
+        <v>5.9965277777777777E-2</v>
       </c>
       <c r="F14">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="G14">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="H14">
-        <v>11.54</v>
+        <v>12.07</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2">
-        <v>44833</v>
+        <v>44801</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1">
-        <v>5.8576388888888886E-2</v>
+        <v>6.0312499999999998E-2</v>
       </c>
       <c r="F15">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G15">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="H15">
-        <v>13.06</v>
+        <v>13.37</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2">
-        <v>44832</v>
+        <v>44846</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1">
-        <v>5.5312499999999994E-2</v>
+        <v>5.7326388888888892E-2</v>
       </c>
       <c r="F16">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="G16">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="H16">
-        <v>10.82</v>
+        <v>11.33</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="K16" s="2">
-        <v>44831</v>
+        <v>44836</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1">
-        <v>5.6261574074074068E-2</v>
+        <v>6.3032407407407412E-2</v>
       </c>
       <c r="F17">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="G17">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="H17">
-        <v>10.36</v>
+        <v>12.19</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2">
-        <v>44831</v>
+        <v>44844</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
-        <v>6.0763888888888888E-2</v>
+        <v>5.8576388888888886E-2</v>
       </c>
       <c r="F18">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="G18">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="H18">
-        <v>14.97</v>
+        <v>13.06</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="K18" s="2">
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1">
-        <v>5.4386574074074073E-2</v>
+        <v>5.724537037037037E-2</v>
       </c>
       <c r="F19">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="G19">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="H19">
-        <v>10.67</v>
+        <v>11.82</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2">
-        <v>44830</v>
+        <v>44846</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1">
-        <v>5.4432870370370368E-2</v>
+        <v>5.6331018518518516E-2</v>
       </c>
       <c r="F20">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="G20">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="H20">
-        <v>10.33</v>
+        <v>11.54</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="K20" s="2">
-        <v>44830</v>
+        <v>44833</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1">
-        <v>5.935185185185185E-2</v>
+        <v>5.2256944444444446E-2</v>
       </c>
       <c r="F21">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="G21">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="H21">
-        <v>16.02</v>
+        <v>9.82</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="K21" s="2">
-        <v>44822</v>
+        <v>44850</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1">
-        <v>5.8252314814814819E-2</v>
+        <v>5.2256944444444446E-2</v>
       </c>
       <c r="F22">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G22">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H22">
-        <v>14.44</v>
+        <v>9.82</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="K22" s="2">
-        <v>44815</v>
+        <v>44850</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1">
-        <v>5.5960648148148141E-2</v>
+        <v>5.842592592592593E-2</v>
       </c>
       <c r="F23">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="G23">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="H23">
-        <v>12.73</v>
+        <v>9.39</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="K23" s="2">
-        <v>44811</v>
+        <v>44850</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1">
-        <v>5.6064814814814817E-2</v>
+        <v>5.8518518518518518E-2</v>
       </c>
       <c r="F24">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="G24">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="H24">
-        <v>12.67</v>
+        <v>9.76</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="K24" s="2">
-        <v>44811</v>
+        <v>44850</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1">
-        <v>5.4305555555555551E-2</v>
+        <v>5.6331018518518516E-2</v>
       </c>
       <c r="F25">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="G25">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="H25">
-        <v>10.57</v>
+        <v>11.54</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K25" s="2">
-        <v>44804</v>
+        <v>44833</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1">
-        <v>4.8900462962962965E-2</v>
+        <v>5.5312499999999994E-2</v>
       </c>
       <c r="F26">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="G26">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="H26">
-        <v>8.31</v>
+        <v>10.82</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K26" s="2">
-        <v>44804</v>
+        <v>44831</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -4816,159 +4845,159 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.6261574074074068E-2</v>
+      </c>
+      <c r="F28">
+        <v>260</v>
+      </c>
+      <c r="G28">
+        <v>260</v>
+      </c>
+      <c r="H28">
+        <v>10.36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="2">
+        <v>44831</v>
+      </c>
+      <c r="L28">
         <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="1">
-        <v>6.0023148148148152E-2</v>
-      </c>
-      <c r="F28">
-        <v>520</v>
-      </c>
-      <c r="G28">
-        <v>520</v>
-      </c>
-      <c r="H28">
-        <v>16.41</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="2">
-        <v>44801</v>
-      </c>
-      <c r="L28">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="E29" s="1">
-        <v>5.994212962962963E-2</v>
+        <v>5.4305555555555551E-2</v>
       </c>
       <c r="F29">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="G29">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="H29">
-        <v>11.96</v>
+        <v>10.57</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K29" s="2">
-        <v>44801</v>
+        <v>44804</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1">
-        <v>5.9965277777777777E-2</v>
+        <v>5.4386574074074073E-2</v>
       </c>
       <c r="F30">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="G30">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="H30">
-        <v>12.07</v>
+        <v>10.67</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K30" s="2">
-        <v>44801</v>
+        <v>44830</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1">
-        <v>5.8993055555555556E-2</v>
+        <v>5.4432870370370368E-2</v>
       </c>
       <c r="F31">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="G31">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="H31">
-        <v>14.08</v>
+        <v>10.33</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K31" s="2">
-        <v>44800</v>
+        <v>44830</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -5004,10 +5033,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.8900462962962965E-2</v>
+      </c>
+      <c r="F33">
+        <v>230</v>
+      </c>
+      <c r="G33">
+        <v>230</v>
+      </c>
+      <c r="H33">
+        <v>8.31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="2">
+        <v>44804</v>
+      </c>
+      <c r="L33">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L32">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
-      <sortCondition descending="1" ref="K1:K32"/>
+  <autoFilter ref="A1:L33" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+      <sortCondition ref="A1:A33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
